--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.995483333333333</v>
+        <v>1.434825</v>
       </c>
       <c r="H2">
-        <v>5.98645</v>
+        <v>4.304475</v>
       </c>
       <c r="I2">
-        <v>0.3457527559234298</v>
+        <v>0.3232227003447979</v>
       </c>
       <c r="J2">
-        <v>0.3457527559234297</v>
+        <v>0.3232227003447979</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N2">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O2">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P2">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q2">
-        <v>6.420908626816669</v>
+        <v>2.438940883574999</v>
       </c>
       <c r="R2">
-        <v>57.78817764135001</v>
+        <v>21.950467952175</v>
       </c>
       <c r="S2">
-        <v>0.09338554820089093</v>
+        <v>0.2417963480612359</v>
       </c>
       <c r="T2">
-        <v>0.09338554820089093</v>
+        <v>0.241796348061236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.995483333333333</v>
+        <v>1.434825</v>
       </c>
       <c r="H3">
-        <v>5.98645</v>
+        <v>4.304475</v>
       </c>
       <c r="I3">
-        <v>0.3457527559234298</v>
+        <v>0.3232227003447979</v>
       </c>
       <c r="J3">
-        <v>0.3457527559234297</v>
+        <v>0.3232227003447979</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N3">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O3">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P3">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q3">
-        <v>17.35200801847222</v>
+        <v>0.821327787525</v>
       </c>
       <c r="R3">
-        <v>156.16807216625</v>
+        <v>7.391950087725</v>
       </c>
       <c r="S3">
-        <v>0.2523672077225388</v>
+        <v>0.08142635228356193</v>
       </c>
       <c r="T3">
-        <v>0.2523672077225388</v>
+        <v>0.08142635228356195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>3.221629</v>
       </c>
       <c r="I4">
-        <v>0.1860680545753899</v>
+        <v>0.2419118765677838</v>
       </c>
       <c r="J4">
-        <v>0.1860680545753899</v>
+        <v>0.2419118765677838</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N4">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O4">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P4">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q4">
-        <v>3.455434429169668</v>
+        <v>1.825393963215222</v>
       </c>
       <c r="R4">
-        <v>31.09890986252701</v>
+        <v>16.428545668937</v>
       </c>
       <c r="S4">
-        <v>0.05025575930056845</v>
+        <v>0.1809693695533535</v>
       </c>
       <c r="T4">
-        <v>0.05025575930056846</v>
+        <v>0.1809693695533535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>3.221629</v>
       </c>
       <c r="I5">
-        <v>0.1860680545753899</v>
+        <v>0.2419118765677838</v>
       </c>
       <c r="J5">
-        <v>0.1860680545753899</v>
+        <v>0.2419118765677838</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N5">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O5">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P5">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q5">
-        <v>9.338043788980556</v>
+        <v>0.6147122282732222</v>
       </c>
       <c r="R5">
-        <v>84.04239410082501</v>
+        <v>5.532410054459</v>
       </c>
       <c r="S5">
-        <v>0.1358122952748215</v>
+        <v>0.06094250701443019</v>
       </c>
       <c r="T5">
-        <v>0.1358122952748215</v>
+        <v>0.06094250701443019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9363446666666665</v>
+        <v>0.466371</v>
       </c>
       <c r="H6">
-        <v>2.809034</v>
+        <v>1.399113</v>
       </c>
       <c r="I6">
-        <v>0.1622382625734142</v>
+        <v>0.1050592887512441</v>
       </c>
       <c r="J6">
-        <v>0.1622382625734142</v>
+        <v>0.1050592887512441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N6">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O6">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P6">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q6">
-        <v>3.012895897171333</v>
+        <v>0.792745665021</v>
       </c>
       <c r="R6">
-        <v>27.116063074542</v>
+        <v>7.134710985189</v>
       </c>
       <c r="S6">
-        <v>0.04381948901351241</v>
+        <v>0.07859272360160066</v>
       </c>
       <c r="T6">
-        <v>0.04381948901351242</v>
+        <v>0.07859272360160066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9363446666666665</v>
+        <v>0.466371</v>
       </c>
       <c r="H7">
-        <v>2.809034</v>
+        <v>1.399113</v>
       </c>
       <c r="I7">
-        <v>0.1622382625734142</v>
+        <v>0.1050592887512441</v>
       </c>
       <c r="J7">
-        <v>0.1622382625734142</v>
+        <v>0.1050592887512441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N7">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O7">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P7">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q7">
-        <v>8.142117697827777</v>
+        <v>0.266961797847</v>
       </c>
       <c r="R7">
-        <v>73.27905928044999</v>
+        <v>2.402656180623</v>
       </c>
       <c r="S7">
-        <v>0.1184187735599018</v>
+        <v>0.02646656514964338</v>
       </c>
       <c r="T7">
-        <v>0.1184187735599018</v>
+        <v>0.02646656514964338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2607776666666666</v>
+        <v>0.4851976666666666</v>
       </c>
       <c r="H8">
-        <v>0.7823329999999999</v>
+        <v>1.455593</v>
       </c>
       <c r="I8">
-        <v>0.04518433976728187</v>
+        <v>0.1093003676552856</v>
       </c>
       <c r="J8">
-        <v>0.04518433976728187</v>
+        <v>0.1093003676552856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N8">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O8">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P8">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q8">
-        <v>0.8391097743643333</v>
+        <v>0.8247475656254443</v>
       </c>
       <c r="R8">
-        <v>7.551987969279001</v>
+        <v>7.422728090628999</v>
       </c>
       <c r="S8">
-        <v>0.01220399336512417</v>
+        <v>0.08176538873230732</v>
       </c>
       <c r="T8">
-        <v>0.01220399336512417</v>
+        <v>0.08176538873230733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2607776666666666</v>
+        <v>0.4851976666666666</v>
       </c>
       <c r="H9">
-        <v>0.7823329999999999</v>
+        <v>1.455593</v>
       </c>
       <c r="I9">
-        <v>0.04518433976728187</v>
+        <v>0.1093003676552856</v>
       </c>
       <c r="J9">
-        <v>0.04518433976728187</v>
+        <v>0.1093003676552856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N9">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O9">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P9">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q9">
-        <v>2.267629144002778</v>
+        <v>0.2777386274114444</v>
       </c>
       <c r="R9">
-        <v>20.408662296025</v>
+        <v>2.499647646703</v>
       </c>
       <c r="S9">
-        <v>0.0329803464021577</v>
+        <v>0.02753497892297824</v>
       </c>
       <c r="T9">
-        <v>0.0329803464021577</v>
+        <v>0.02753497892297824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.504935</v>
+        <v>0.9788520000000002</v>
       </c>
       <c r="H10">
-        <v>4.514805</v>
+        <v>2.936556</v>
       </c>
       <c r="I10">
-        <v>0.2607565871604841</v>
+        <v>0.2205057666808887</v>
       </c>
       <c r="J10">
-        <v>0.2607565871604841</v>
+        <v>0.2205057666808887</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N10">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O10">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P10">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q10">
-        <v>4.842460953135</v>
+        <v>1.663869922652</v>
       </c>
       <c r="R10">
-        <v>43.582148578215</v>
+        <v>14.974829303868</v>
       </c>
       <c r="S10">
-        <v>0.07042864133921159</v>
+        <v>0.1649558928039566</v>
       </c>
       <c r="T10">
-        <v>0.0704286413392116</v>
+        <v>0.1649558928039566</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.504935</v>
+        <v>0.9788520000000002</v>
       </c>
       <c r="H11">
-        <v>4.514805</v>
+        <v>2.936556</v>
       </c>
       <c r="I11">
-        <v>0.2607565871604841</v>
+        <v>0.2205057666808887</v>
       </c>
       <c r="J11">
-        <v>0.2607565871604841</v>
+        <v>0.2205057666808887</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N11">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O11">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P11">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q11">
-        <v>13.086375491625</v>
+        <v>0.5603180509640001</v>
       </c>
       <c r="R11">
-        <v>117.777379424625</v>
+        <v>5.042862458676001</v>
       </c>
       <c r="S11">
-        <v>0.1903279458212725</v>
+        <v>0.05554987387693216</v>
       </c>
       <c r="T11">
-        <v>0.1903279458212725</v>
+        <v>0.05554987387693216</v>
       </c>
     </row>
   </sheetData>
